--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,27 +564,27 @@
         <v>0.210947</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="Q2">
-        <v>0.5953923760008889</v>
+        <v>0.4720468601969999</v>
       </c>
       <c r="R2">
-        <v>5.358531384008001</v>
+        <v>4.248421741773</v>
       </c>
       <c r="S2">
-        <v>0.2732469334691615</v>
+        <v>0.108586420988784</v>
       </c>
       <c r="T2">
-        <v>0.312800300005396</v>
+        <v>0.1444174536454583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3343473333333333</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H3">
-        <v>1.003042</v>
+        <v>20.139759</v>
       </c>
       <c r="I3">
-        <v>0.01078951666043525</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J3">
-        <v>0.01235133366529898</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.07031566666666667</v>
+        <v>0.1305455</v>
       </c>
       <c r="N3">
-        <v>0.210947</v>
+        <v>0.261091</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6499290139872732</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5531143679110581</v>
       </c>
       <c r="Q3">
-        <v>0.02350985564155555</v>
+        <v>0.8763849695114999</v>
       </c>
       <c r="R3">
-        <v>0.211588700774</v>
+        <v>5.258309817069</v>
       </c>
       <c r="S3">
-        <v>0.01078951666043525</v>
+        <v>0.2015975854767971</v>
       </c>
       <c r="T3">
-        <v>0.01235133366529898</v>
+        <v>0.1787467818444744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.140032333333333</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H4">
-        <v>12.420097</v>
+        <v>1.003042</v>
       </c>
       <c r="I4">
-        <v>0.1336004309946362</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J4">
-        <v>0.1529395201819853</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,27 +688,27 @@
         <v>0.210947</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="Q4">
-        <v>0.2911091335398889</v>
+        <v>0.02350985564155555</v>
       </c>
       <c r="R4">
-        <v>2.619982201859</v>
+        <v>0.211588700774</v>
       </c>
       <c r="S4">
-        <v>0.1336004309946362</v>
+        <v>0.005408045889795996</v>
       </c>
       <c r="T4">
-        <v>0.1529395201819853</v>
+        <v>0.007192577207078187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.755292</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H5">
-        <v>23.510584</v>
+        <v>1.003042</v>
       </c>
       <c r="I5">
-        <v>0.3793477806979605</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J5">
-        <v>0.2895063892140504</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07031566666666667</v>
+        <v>0.1305455</v>
       </c>
       <c r="N5">
-        <v>0.210947</v>
+        <v>0.261091</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6499290139872732</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5531143679110581</v>
       </c>
       <c r="Q5">
-        <v>0.8265811938413332</v>
+        <v>0.04364753980366667</v>
       </c>
       <c r="R5">
-        <v>4.959487163047999</v>
+        <v>0.261885238822</v>
       </c>
       <c r="S5">
-        <v>0.3793477806979605</v>
+        <v>0.0100403805890536</v>
       </c>
       <c r="T5">
-        <v>0.2895063892140504</v>
+        <v>0.008902317527972671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.291073</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H6">
-        <v>18.873219</v>
+        <v>19.985354</v>
       </c>
       <c r="I6">
-        <v>0.2030153381778063</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J6">
-        <v>0.2324024569332694</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,22 +812,332 @@
         <v>0.210947</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="Q6">
-        <v>0.4423609920436666</v>
+        <v>0.4684278300264444</v>
       </c>
       <c r="R6">
-        <v>3.981248928393</v>
+        <v>4.215850470238</v>
       </c>
       <c r="S6">
-        <v>0.2030153381778063</v>
+        <v>0.107753924118649</v>
       </c>
       <c r="T6">
-        <v>0.2324024569332694</v>
+        <v>0.1433102518696015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.661784666666667</v>
+      </c>
+      <c r="H7">
+        <v>19.985354</v>
+      </c>
+      <c r="I7">
+        <v>0.3078059262949933</v>
+      </c>
+      <c r="J7">
+        <v>0.3206866401135023</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1305455</v>
+      </c>
+      <c r="N7">
+        <v>0.261091</v>
+      </c>
+      <c r="O7">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="P7">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="Q7">
+        <v>0.8696660102023334</v>
+      </c>
+      <c r="R7">
+        <v>5.217996061214</v>
+      </c>
+      <c r="S7">
+        <v>0.2000520021763443</v>
+      </c>
+      <c r="T7">
+        <v>0.1773763882439008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.607918</v>
+      </c>
+      <c r="H8">
+        <v>5.215835999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.1204981331366039</v>
+      </c>
+      <c r="J8">
+        <v>0.08369373503331734</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07031566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.210947</v>
+      </c>
+      <c r="O8">
+        <v>0.3500709860127268</v>
+      </c>
+      <c r="P8">
+        <v>0.446885632088942</v>
+      </c>
+      <c r="Q8">
+        <v>0.183377492782</v>
+      </c>
+      <c r="R8">
+        <v>1.100264956692</v>
+      </c>
+      <c r="S8">
+        <v>0.04218290027982376</v>
+      </c>
+      <c r="T8">
+        <v>0.03740152768224845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.607918</v>
+      </c>
+      <c r="H9">
+        <v>5.215835999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1204981331366039</v>
+      </c>
+      <c r="J9">
+        <v>0.08369373503331734</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1305455</v>
+      </c>
+      <c r="N9">
+        <v>0.261091</v>
+      </c>
+      <c r="O9">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="P9">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="Q9">
+        <v>0.340451959269</v>
+      </c>
+      <c r="R9">
+        <v>1.361807837076</v>
+      </c>
+      <c r="S9">
+        <v>0.07831523285678013</v>
+      </c>
+      <c r="T9">
+        <v>0.0462922073510689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.325505333333333</v>
+      </c>
+      <c r="H10">
+        <v>15.976516</v>
+      </c>
+      <c r="I10">
+        <v>0.2460635076239721</v>
+      </c>
+      <c r="J10">
+        <v>0.2563604946281968</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.07031566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.210947</v>
+      </c>
+      <c r="O10">
+        <v>0.3500709860127268</v>
+      </c>
+      <c r="P10">
+        <v>0.446885632088942</v>
+      </c>
+      <c r="Q10">
+        <v>0.3744664578502222</v>
+      </c>
+      <c r="R10">
+        <v>3.370198120652</v>
+      </c>
+      <c r="S10">
+        <v>0.08613969473567405</v>
+      </c>
+      <c r="T10">
+        <v>0.1145638216845555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.325505333333333</v>
+      </c>
+      <c r="H11">
+        <v>15.976516</v>
+      </c>
+      <c r="I11">
+        <v>0.2460635076239721</v>
+      </c>
+      <c r="J11">
+        <v>0.2563604946281968</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1305455</v>
+      </c>
+      <c r="N11">
+        <v>0.261091</v>
+      </c>
+      <c r="O11">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="P11">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="Q11">
+        <v>0.6952207564926667</v>
+      </c>
+      <c r="R11">
+        <v>4.171324538956</v>
+      </c>
+      <c r="S11">
+        <v>0.1599238128882981</v>
+      </c>
+      <c r="T11">
+        <v>0.1417966729436413</v>
       </c>
     </row>
   </sheetData>
